--- a/ltb/case/npcc_htb.xlsx
+++ b/ltb/case/npcc_htb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang175\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/hlcosim/ltb/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFCF09B-7939-46D4-8A80-2104D694CC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF71B0B-ECFF-F14F-AADD-4C33421A3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36480" yWindow="1080" windowWidth="34560" windowHeight="19440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Area" sheetId="6" r:id="rId6"/>
     <sheet name="GENCLS" sheetId="7" r:id="rId7"/>
     <sheet name="GENROU" sheetId="8" r:id="rId8"/>
-    <sheet name="TGOV1" sheetId="9" r:id="rId9"/>
+    <sheet name="TGOV1NDB" sheetId="9" r:id="rId9"/>
     <sheet name="IEEEX1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="632">
   <si>
     <t>idx</t>
   </si>
@@ -1913,6 +1913,18 @@
   </si>
   <si>
     <t>IEEEX1_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> calculat</t>
+  </si>
+  <si>
+    <t>dbL</t>
+  </si>
+  <si>
+    <t>dbU</t>
+  </si>
+  <si>
+    <t>TGOV1_30</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1956,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1967,13 +1979,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2321,9 +2347,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2411,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2455,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2499,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2543,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2587,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2631,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2675,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2719,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2763,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2807,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2851,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2895,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2939,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2983,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3027,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3071,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3115,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3159,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3203,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3247,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3291,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3335,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3379,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3423,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3467,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3511,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3555,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3599,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3643,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3687,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3731,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3775,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3819,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3863,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3907,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3951,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3995,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4039,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4083,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4127,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4171,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4215,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4259,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4303,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4347,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4391,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4435,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4479,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4523,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4567,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4611,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4655,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4699,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4743,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4787,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4831,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4875,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4919,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4963,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5007,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5051,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5095,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5139,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5183,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5227,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5271,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5315,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5359,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5403,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5447,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5491,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5535,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5579,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5623,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5667,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5711,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5755,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5799,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5843,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5887,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5931,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5975,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6019,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6063,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6107,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6151,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6195,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6239,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6283,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6327,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6371,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6415,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6459,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6503,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6547,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6591,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6635,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6679,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6723,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6767,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6811,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6855,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6899,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6943,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6987,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7031,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7075,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7119,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7163,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7207,7 +7233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7251,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7295,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7339,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7383,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7427,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7471,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7515,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7559,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7603,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7647,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7691,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7735,7 +7761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7779,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7823,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7867,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7911,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7955,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7999,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -8043,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8087,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -8131,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -8175,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -8219,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8263,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8307,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8351,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8395,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8439,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8483,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8541,9 +8567,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -8605,7 +8631,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8667,7 +8693,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8729,7 +8755,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8791,7 +8817,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8853,7 +8879,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8915,7 +8941,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8977,7 +9003,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9039,7 +9065,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9101,7 +9127,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9163,7 +9189,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9225,7 +9251,7 @@
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9287,7 +9313,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9349,7 +9375,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9411,7 +9437,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9473,7 +9499,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9535,7 +9561,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9597,7 +9623,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9659,7 +9685,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9721,7 +9747,7 @@
         <v>1.667</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9783,7 +9809,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9845,7 +9871,7 @@
         <v>1.667</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9907,7 +9933,7 @@
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9969,7 +9995,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10031,7 +10057,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10103,13 +10129,13 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -10144,7 +10170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10179,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10214,7 +10240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10249,7 +10275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10284,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10319,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10354,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10389,7 +10415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10424,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10459,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10494,7 +10520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10529,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10564,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10599,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10634,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10669,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10704,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10739,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10774,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10809,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10844,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10879,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10914,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10949,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10984,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11019,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11054,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11089,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11124,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11159,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11194,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11229,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11264,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -11299,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11334,7 +11360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11369,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11404,7 +11430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11439,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11474,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11509,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11544,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11579,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11614,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11649,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11684,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11719,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11754,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11789,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11824,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11859,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11894,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11929,7 +11955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11964,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11999,7 +12025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -12034,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -12069,7 +12095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -12104,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -12139,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -12174,7 +12200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -12209,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -12244,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -12279,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -12314,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -12349,7 +12375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -12384,7 +12410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -12419,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -12454,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -12489,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -12524,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -12559,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -12594,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -12629,7 +12655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -12664,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -12699,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -12734,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -12769,7 +12795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -12804,7 +12830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -12839,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -12874,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -12909,7 +12935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -12944,7 +12970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -12979,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -13014,7 +13040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -13049,7 +13075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -13084,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -13119,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -13154,7 +13180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -13189,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -13224,7 +13250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -13259,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13294,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13329,7 +13355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13378,9 +13404,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -13439,7 +13465,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13495,7 +13521,7 @@
         <v>0.2175</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13551,7 +13577,7 @@
         <v>0.20649999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13607,7 +13633,7 @@
         <v>9.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13663,7 +13689,7 @@
         <v>0.2235</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13719,7 +13745,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13775,7 +13801,7 @@
         <v>0.20930000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13831,7 +13857,7 @@
         <v>0.28170000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13887,7 +13913,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13943,7 +13969,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13999,7 +14025,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14055,7 +14081,7 @@
         <v>0.35189999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14111,7 +14137,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14167,7 +14193,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -14223,7 +14249,7 @@
         <v>6.1949999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -14279,7 +14305,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -14335,7 +14361,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -14391,7 +14417,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -14447,7 +14473,7 @@
         <v>0.3624</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -14503,7 +14529,7 @@
         <v>0.25750000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -14559,7 +14585,7 @@
         <v>0.16239999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -14615,7 +14641,7 @@
         <v>0.23535</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -14671,7 +14697,7 @@
         <v>0.18940000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14727,7 +14753,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14783,7 +14809,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14839,7 +14865,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14895,7 +14921,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14951,7 +14977,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -15007,7 +15033,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -15063,7 +15089,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -15119,7 +15145,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -15175,7 +15201,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -15231,7 +15257,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -15287,7 +15313,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -15343,7 +15369,7 @@
         <v>9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -15399,7 +15425,7 @@
         <v>0.22950000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -15455,7 +15481,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -15511,7 +15537,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -15567,7 +15593,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -15623,7 +15649,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -15679,7 +15705,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -15735,7 +15761,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -15791,7 +15817,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -15847,7 +15873,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -15903,7 +15929,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -15959,7 +15985,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -16015,7 +16041,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -16085,9 +16111,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -16149,7 +16175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -16222,9 +16248,9 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -16298,7 +16324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -16363,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -16428,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -16493,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -16558,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -16623,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -16688,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -16753,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -16818,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -16883,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -16948,7 +16974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -17013,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -17078,7 +17104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -17143,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -17208,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -17273,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -17338,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -17403,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -17468,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -17533,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -17598,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -17663,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -17728,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -17793,7 +17819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -17858,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -17923,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -17988,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -18053,7 +18079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -18118,7 +18144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -18183,7 +18209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -18248,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -18313,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -18378,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -18443,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -18508,7 +18534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -18573,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -18638,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -18703,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -18768,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -18833,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -18898,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -18963,7 +18989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -19028,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -19093,7 +19119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -19158,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -19223,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -19288,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -19353,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -19418,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -19483,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -19548,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -19613,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -19678,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -19743,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -19808,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -19873,7 +19899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -19938,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -20003,7 +20029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -20068,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -20133,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -20198,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -20263,7 +20289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -20328,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -20393,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -20458,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -20523,7 +20549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -20588,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -20653,7 +20679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -20718,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -20783,7 +20809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -20848,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -20913,7 +20939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -20978,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -21043,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -21108,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -21173,7 +21199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -21238,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -21303,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -21368,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -21433,7 +21459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -21498,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -21563,7 +21589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -21628,7 +21654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -21693,7 +21719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -21758,7 +21784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -21823,7 +21849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -21888,7 +21914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -21953,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -22018,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -22083,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -22148,7 +22174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -22213,7 +22239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -22278,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -22343,7 +22369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -22408,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -22473,7 +22499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -22538,7 +22564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -22603,7 +22629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -22668,7 +22694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -22733,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -22798,7 +22824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -22863,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -22928,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -22993,7 +23019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -23058,7 +23084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -23123,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -23188,7 +23214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -23253,7 +23279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -23318,7 +23344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -23383,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -23448,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -23513,7 +23539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -23578,7 +23604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -23643,7 +23669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -23708,7 +23734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -23773,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -23838,7 +23864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -23903,7 +23929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -23968,7 +23994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -24033,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -24098,7 +24124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -24163,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -24228,7 +24254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -24293,7 +24319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -24358,7 +24384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -24423,7 +24449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -24488,7 +24514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -24553,7 +24579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -24618,7 +24644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -24683,7 +24709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -24748,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -24813,7 +24839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -24878,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -24943,7 +24969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -25008,7 +25034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -25073,7 +25099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -25138,7 +25164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -25203,7 +25229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -25268,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -25333,7 +25359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -25398,7 +25424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -25463,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -25528,7 +25554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -25593,7 +25619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -25658,7 +25684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -25723,7 +25749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -25788,7 +25814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -25853,7 +25879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -25918,7 +25944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -25983,7 +26009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -26048,7 +26074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -26113,7 +26139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -26178,7 +26204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -26243,7 +26269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -26308,7 +26334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -26373,7 +26399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -26438,7 +26464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -26503,7 +26529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -26568,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -26633,7 +26659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -26698,7 +26724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -26763,7 +26789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -26828,7 +26854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -26893,7 +26919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -26958,7 +26984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -27023,7 +27049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -27088,7 +27114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -27153,7 +27179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -27218,7 +27244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -27283,7 +27309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -27348,7 +27374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -27413,7 +27439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -27478,7 +27504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -27543,7 +27569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -27608,7 +27634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -27673,7 +27699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -27738,7 +27764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -27803,7 +27829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -27868,7 +27894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -27933,7 +27959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -27998,7 +28024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -28063,7 +28089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -28128,7 +28154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -28193,7 +28219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -28258,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -28323,7 +28349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -28388,7 +28414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -28453,7 +28479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -28518,7 +28544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -28583,7 +28609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -28648,7 +28674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -28713,7 +28739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -28778,7 +28804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -28843,7 +28869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -28908,7 +28934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -28973,7 +28999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -29038,7 +29064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -29103,7 +29129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -29168,7 +29194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -29233,7 +29259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -29298,7 +29324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -29363,7 +29389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -29428,7 +29454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -29493,7 +29519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -29558,7 +29584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -29623,7 +29649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -29688,7 +29714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -29753,7 +29779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -29818,7 +29844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -29883,7 +29909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -29948,7 +29974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -30013,7 +30039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -30078,7 +30104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -30143,7 +30169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -30208,7 +30234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -30273,7 +30299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -30338,7 +30364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -30403,7 +30429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -30468,7 +30494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -30533,7 +30559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -30598,7 +30624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -30663,7 +30689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -30728,7 +30754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -30793,7 +30819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -30858,7 +30884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -30923,7 +30949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -30988,7 +31014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -31053,7 +31079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -31118,7 +31144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -31183,7 +31209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -31248,7 +31274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -31313,7 +31339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -31378,7 +31404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -31457,9 +31483,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -31473,7 +31499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -31487,7 +31513,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -31501,7 +31527,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -31515,7 +31541,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -31529,7 +31555,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -31543,7 +31569,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -31566,14 +31592,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -31632,7 +31658,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -31661,7 +31687,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>37</v>
+        <v>5000</v>
       </c>
       <c r="L2">
         <v>74</v>
@@ -31688,7 +31714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -31717,7 +31743,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>10.71</v>
+        <v>5000</v>
       </c>
       <c r="L3">
         <v>21.42</v>
@@ -31744,7 +31770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -31773,7 +31799,7 @@
         <v>60</v>
       </c>
       <c r="K4">
-        <v>3.77</v>
+        <v>5000</v>
       </c>
       <c r="L4">
         <v>7.54</v>
@@ -31800,7 +31826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -31829,7 +31855,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>8.5</v>
+        <v>5000</v>
       </c>
       <c r="L5">
         <v>17</v>
@@ -31856,7 +31882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -31885,7 +31911,7 @@
         <v>60</v>
       </c>
       <c r="K6">
-        <v>11.77</v>
+        <v>5000</v>
       </c>
       <c r="L6">
         <v>23.54</v>
@@ -31912,7 +31938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -31941,10 +31967,10 @@
         <v>60</v>
       </c>
       <c r="K7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -31968,7 +31994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -31997,7 +32023,7 @@
         <v>60</v>
       </c>
       <c r="K8">
-        <v>98.7</v>
+        <v>5000</v>
       </c>
       <c r="L8">
         <v>197.4</v>
@@ -32024,7 +32050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -32053,7 +32079,7 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>27</v>
+        <v>5000</v>
       </c>
       <c r="L9">
         <v>54</v>
@@ -32080,7 +32106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -32109,7 +32135,7 @@
         <v>60</v>
       </c>
       <c r="K10">
-        <v>36</v>
+        <v>5000</v>
       </c>
       <c r="L10">
         <v>72</v>
@@ -32136,7 +32162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -32165,7 +32191,7 @@
         <v>60</v>
       </c>
       <c r="K11">
-        <v>46</v>
+        <v>5000</v>
       </c>
       <c r="L11">
         <v>92</v>
@@ -32192,7 +32218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -32221,7 +32247,7 @@
         <v>60</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="L12">
         <v>60</v>
@@ -32248,7 +32274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -32277,7 +32303,7 @@
         <v>60</v>
       </c>
       <c r="K13">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L13">
         <v>2000</v>
@@ -32304,7 +32330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -32333,7 +32359,7 @@
         <v>60</v>
       </c>
       <c r="K14">
-        <v>66</v>
+        <v>5000</v>
       </c>
       <c r="L14">
         <v>132</v>
@@ -32360,7 +32386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -32389,7 +32415,7 @@
         <v>60</v>
       </c>
       <c r="K15">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="L15">
         <v>380</v>
@@ -32416,7 +32442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -32445,7 +32471,7 @@
         <v>60</v>
       </c>
       <c r="K16">
-        <v>33</v>
+        <v>5000</v>
       </c>
       <c r="L16">
         <v>66</v>
@@ -32472,7 +32498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -32501,7 +32527,7 @@
         <v>60</v>
       </c>
       <c r="K17">
-        <v>24</v>
+        <v>5000</v>
       </c>
       <c r="L17">
         <v>48</v>
@@ -32528,7 +32554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -32557,7 +32583,7 @@
         <v>60</v>
       </c>
       <c r="K18">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L18">
         <v>2000</v>
@@ -32584,7 +32610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -32613,7 +32639,7 @@
         <v>60</v>
       </c>
       <c r="K19">
-        <v>44</v>
+        <v>5000</v>
       </c>
       <c r="L19">
         <v>88</v>
@@ -32640,7 +32666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -32669,7 +32695,7 @@
         <v>60</v>
       </c>
       <c r="K20">
-        <v>115</v>
+        <v>5000</v>
       </c>
       <c r="L20">
         <v>230</v>
@@ -32696,7 +32722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -32725,7 +32751,7 @@
         <v>60</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>5000</v>
       </c>
       <c r="L21">
         <v>7</v>
@@ -32752,7 +32778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -32781,7 +32807,7 @@
         <v>60</v>
       </c>
       <c r="K22">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L22">
         <v>2000</v>
@@ -32819,12 +32845,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -32910,7 +32936,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -32939,7 +32965,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L2">
         <v>9.2799999999999994</v>
@@ -32993,7 +33019,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -33022,7 +33048,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L3">
         <v>8.1714000000000002</v>
@@ -33076,7 +33102,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -33105,7 +33131,7 @@
         <v>60</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L4">
         <v>4.8933999999999997</v>
@@ -33159,7 +33185,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -33188,7 +33214,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L5">
         <v>12.4</v>
@@ -33242,7 +33268,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -33271,7 +33297,7 @@
         <v>60</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L6">
         <v>8.6999999999999993</v>
@@ -33325,7 +33351,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -33354,7 +33380,7 @@
         <v>60</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L7">
         <v>8.1229999999999993</v>
@@ -33408,7 +33434,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -33437,7 +33463,7 @@
         <v>60</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L8">
         <v>7.6</v>
@@ -33491,7 +33517,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -33520,7 +33546,7 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L9">
         <v>8.1</v>
@@ -33574,7 +33600,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -33603,7 +33629,7 @@
         <v>60</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L10">
         <v>9.3230000000000004</v>
@@ -33657,7 +33683,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -33686,7 +33712,7 @@
         <v>60</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L11">
         <v>9.43</v>
@@ -33740,7 +33766,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -33769,7 +33795,7 @@
         <v>60</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L12">
         <v>6.7422000000000004</v>
@@ -33823,7 +33849,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -33852,7 +33878,7 @@
         <v>60</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L13">
         <v>6.0679999999999996</v>
@@ -33906,7 +33932,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -33935,7 +33961,7 @@
         <v>60</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L14">
         <v>9.84</v>
@@ -33989,7 +34015,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -34018,7 +34044,7 @@
         <v>60</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L15">
         <v>28.614000000000001</v>
@@ -34072,7 +34098,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -34101,7 +34127,7 @@
         <v>60</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L16">
         <v>15.7662</v>
@@ -34155,7 +34181,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -34184,7 +34210,7 @@
         <v>60</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L17">
         <v>15.7662</v>
@@ -34238,7 +34264,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -34267,7 +34293,7 @@
         <v>60</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L18">
         <v>9.9634</v>
@@ -34321,7 +34347,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -34350,7 +34376,7 @@
         <v>60</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L19">
         <v>8.7759999999999998</v>
@@ -34404,7 +34430,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -34433,7 +34459,7 @@
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L20">
         <v>10.119999999999999</v>
@@ -34487,7 +34513,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -34516,7 +34542,7 @@
         <v>60</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L21">
         <v>9.6622000000000003</v>
@@ -34570,7 +34596,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -34599,7 +34625,7 @@
         <v>60</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L22">
         <v>8.32</v>
@@ -34653,7 +34679,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -34682,7 +34708,7 @@
         <v>60</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L23">
         <v>8.3477999999999994</v>
@@ -34736,7 +34762,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -34765,7 +34791,7 @@
         <v>60</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L24">
         <v>5.95</v>
@@ -34819,7 +34845,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -34848,7 +34874,7 @@
         <v>60</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L25">
         <v>7.84</v>
@@ -34902,7 +34928,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -34931,7 +34957,7 @@
         <v>60</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L26">
         <v>8.3157999999999994</v>
@@ -34985,7 +35011,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -35014,7 +35040,7 @@
         <v>60</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L27">
         <v>22.154</v>
@@ -35068,7 +35094,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -35097,7 +35123,7 @@
         <v>60</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L28">
         <v>8.1479999999999997</v>
@@ -35158,18 +35184,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>628</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -35210,8 +35236,14 @@
       <c r="N1" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -35251,8 +35283,14 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P2">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -35292,8 +35330,14 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P3">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -35333,8 +35377,14 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P4">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -35374,8 +35424,14 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P5">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -35415,8 +35471,14 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P6">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -35456,8 +35518,14 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P7">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -35497,8 +35565,14 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P8">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -35538,8 +35612,14 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P9">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -35579,8 +35659,14 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P10">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -35620,8 +35706,14 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P11">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -35661,8 +35753,14 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P12">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -35702,8 +35800,14 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P13">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -35743,8 +35847,14 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P14">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -35784,8 +35894,14 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P15">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -35825,8 +35941,14 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P16">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -35866,8 +35988,14 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P17">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -35907,8 +36035,14 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P18">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -35948,8 +36082,14 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P19">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -35989,8 +36129,14 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P20">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -36030,8 +36176,14 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P21">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -36071,8 +36223,14 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P22">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -36112,8 +36270,14 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P23">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -36153,8 +36317,14 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P24">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -36194,8 +36364,14 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P25">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -36235,8 +36411,14 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P26">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -36276,8 +36458,14 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P27">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -36317,8 +36505,14 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P28">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -36358,8 +36552,14 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P29">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -36398,6 +36598,59 @@
       </c>
       <c r="N30">
         <v>0</v>
+      </c>
+      <c r="O30">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P30">
+        <v>3.3300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E31" t="s">
+        <v>499</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0.05</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>0.3</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>-3.3300000000000002E-4</v>
+      </c>
+      <c r="P31">
+        <v>3.3300000000000002E-4</v>
       </c>
     </row>
   </sheetData>
